--- a/logs.xlsx
+++ b/logs.xlsx
@@ -4,6 +4,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -397,10 +398,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2021-1-28</v>
+        <v>2021-2-17</v>
       </c>
       <c r="B2" t="str">
-        <v>23:35-23:36</v>
+        <v>-</v>
       </c>
       <c r="C2" t="str">
         <v>0.0000</v>
@@ -408,10 +409,10 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2021-1-28</v>
+        <v>2021-2-17</v>
       </c>
       <c r="B3" t="str">
-        <v>23:49-23:50</v>
+        <v>-</v>
       </c>
       <c r="C3" t="str">
         <v>0.0000</v>
@@ -422,4 +423,29 @@
     <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>日期</v>
+      </c>
+      <c r="B1" t="str">
+        <v>时间</v>
+      </c>
+      <c r="C1" t="str">
+        <v>总限电量</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:C1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/logs.xlsx
+++ b/logs.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,9 +418,284 @@
         <v>0.0000</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>2021-6-24</v>
+      </c>
+      <c r="B4" t="str">
+        <v>-</v>
+      </c>
+      <c r="C4" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>2021-6-24</v>
+      </c>
+      <c r="B5" t="str">
+        <v>-</v>
+      </c>
+      <c r="C5" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>2021-7-2</v>
+      </c>
+      <c r="B6" t="str">
+        <v>-</v>
+      </c>
+      <c r="C6" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>2021-7-2</v>
+      </c>
+      <c r="B7" t="str">
+        <v>-</v>
+      </c>
+      <c r="C7" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>2021-7-2</v>
+      </c>
+      <c r="B8" t="str">
+        <v>-</v>
+      </c>
+      <c r="C8" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>2021-7-2</v>
+      </c>
+      <c r="B9" t="str">
+        <v>-</v>
+      </c>
+      <c r="C9" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>2021-7-2</v>
+      </c>
+      <c r="B10" t="str">
+        <v>-</v>
+      </c>
+      <c r="C10" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>2021-7-2</v>
+      </c>
+      <c r="B11" t="str">
+        <v>-</v>
+      </c>
+      <c r="C11" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>2021-7-2</v>
+      </c>
+      <c r="B12" t="str">
+        <v>-</v>
+      </c>
+      <c r="C12" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>2021-7-2</v>
+      </c>
+      <c r="B13" t="str">
+        <v>-</v>
+      </c>
+      <c r="C13" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>2021-7-2</v>
+      </c>
+      <c r="B14" t="str">
+        <v>-</v>
+      </c>
+      <c r="C14" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>2021-7-2</v>
+      </c>
+      <c r="B15" t="str">
+        <v>-</v>
+      </c>
+      <c r="C15" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>2021-7-2</v>
+      </c>
+      <c r="B16" t="str">
+        <v>23:49-23:50</v>
+      </c>
+      <c r="C16" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>2021-7-2</v>
+      </c>
+      <c r="B17" t="str">
+        <v>-</v>
+      </c>
+      <c r="C17" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>2021-7-2</v>
+      </c>
+      <c r="B18" t="str">
+        <v>-</v>
+      </c>
+      <c r="C18" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>2021-7-4</v>
+      </c>
+      <c r="B19" t="str">
+        <v>-</v>
+      </c>
+      <c r="C19" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>2021-7-4</v>
+      </c>
+      <c r="B20" t="str">
+        <v>-</v>
+      </c>
+      <c r="C20" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>2021-7-4</v>
+      </c>
+      <c r="B21" t="str">
+        <v>-</v>
+      </c>
+      <c r="C21" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>2021-7-4</v>
+      </c>
+      <c r="B22" t="str">
+        <v>-</v>
+      </c>
+      <c r="C22" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>2021-7-4</v>
+      </c>
+      <c r="B23" t="str">
+        <v>-</v>
+      </c>
+      <c r="C23" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>2021-7-4</v>
+      </c>
+      <c r="B24" t="str">
+        <v>-</v>
+      </c>
+      <c r="C24" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>2021-7-4</v>
+      </c>
+      <c r="B25" t="str">
+        <v>-</v>
+      </c>
+      <c r="C25" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>2021-7-4</v>
+      </c>
+      <c r="B26" t="str">
+        <v>-</v>
+      </c>
+      <c r="C26" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>2021-7-4</v>
+      </c>
+      <c r="B27" t="str">
+        <v>-</v>
+      </c>
+      <c r="C27" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>2021-7-4</v>
+      </c>
+      <c r="B28" t="str">
+        <v>-</v>
+      </c>
+      <c r="C28" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C28"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -693,9 +693,141 @@
         <v>0.0000</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>2021-7-14</v>
+      </c>
+      <c r="B29" t="str">
+        <v>-</v>
+      </c>
+      <c r="C29" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>2021-7-14</v>
+      </c>
+      <c r="B30" t="str">
+        <v>-</v>
+      </c>
+      <c r="C30" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>2021-7-14</v>
+      </c>
+      <c r="B31" t="str">
+        <v>-</v>
+      </c>
+      <c r="C31" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>2021-7-22</v>
+      </c>
+      <c r="B32" t="str">
+        <v>-</v>
+      </c>
+      <c r="C32" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>2021-7-22</v>
+      </c>
+      <c r="B33" t="str">
+        <v>-</v>
+      </c>
+      <c r="C33" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>2021-7-22</v>
+      </c>
+      <c r="B34" t="str">
+        <v>-</v>
+      </c>
+      <c r="C34" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>2021-7-22</v>
+      </c>
+      <c r="B35" t="str">
+        <v>-</v>
+      </c>
+      <c r="C35" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>2021-7-22</v>
+      </c>
+      <c r="B36" t="str">
+        <v>-</v>
+      </c>
+      <c r="C36" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>2021-7-22</v>
+      </c>
+      <c r="B37" t="str">
+        <v>-</v>
+      </c>
+      <c r="C37" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>2021-7-22</v>
+      </c>
+      <c r="B38" t="str">
+        <v>-</v>
+      </c>
+      <c r="C38" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>2021-7-22</v>
+      </c>
+      <c r="B39" t="str">
+        <v>-</v>
+      </c>
+      <c r="C39" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>2021-7-22</v>
+      </c>
+      <c r="B40" t="str">
+        <v>-</v>
+      </c>
+      <c r="C40" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C28"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C40"/>
   </ignoredErrors>
 </worksheet>
 </file>
